--- a/Projects/Federal Reserve Data/['CA', 'LF', 'FFR', 'CA Lag', 'LF Lag', 'FFR Lag']Aggregated C-A  Diff-in-DiffDAGVAR 2004-12-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/['CA', 'LF', 'FFR', 'CA Lag', 'LF Lag', 'FFR Lag']Aggregated C-A  Diff-in-DiffDAGVAR 2004-12-31 to 2020-02-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>C/A</t>
   </si>
@@ -52,10 +52,49 @@
     <t>0.144</t>
   </si>
   <si>
-    <t>-0.439</t>
-  </si>
-  <si>
-    <t>-0.144</t>
+    <t>-0.065</t>
+  </si>
+  <si>
+    <t>-0.265***</t>
+  </si>
+  <si>
+    <t>6.287***</t>
+  </si>
+  <si>
+    <t>-0.431</t>
+  </si>
+  <si>
+    <t>-0.036***</t>
+  </si>
+  <si>
+    <t>-0.003</t>
+  </si>
+  <si>
+    <t>0.283***</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>1.0***</t>
+  </si>
+  <si>
+    <t>-0.0**</t>
+  </si>
+  <si>
+    <t>0.0***</t>
+  </si>
+  <si>
+    <t>0.0*</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>-0.0***</t>
   </si>
 </sst>
 </file>
@@ -413,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,32 +468,86 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -462,13 +555,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -476,10 +578,19 @@
         <v>0.6</v>
       </c>
       <c r="C6">
-        <v>0.3</v>
+        <v>0.68</v>
       </c>
       <c r="D6">
-        <v>0.26</v>
+        <v>0.19</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
